--- a/Apps/lines.xlsx
+++ b/Apps/lines.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
-    <t xml:space="preserve">Brisbane Lions v Adelaide</t>
+    <t xml:space="preserve">Adelaide v Sydney</t>
   </si>
   <si>
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlton v Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorn v Western Bulldogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Melbourne v Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Adelaide v Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney v Gold Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast v Fremantle</t>
+    <t xml:space="preserve">Round 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremantle v Port Adelaide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast v Carlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne v Hawthorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond v North Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Kilda v Geelong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Bulldogs v West Coast</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.25</v>
+        <v>-9.5</v>
       </c>
       <c r="C2" t="n">
-        <v>21.25</v>
+        <v>9.5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45150.2743055556</v>
+        <v>45157.4027777778</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -447,13 +447,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.5</v>
+        <v>6.5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45150.3923611111</v>
+        <v>45156.4097222222</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -467,13 +467,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.25</v>
+        <v>9.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.25</v>
+        <v>-9.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45149.4097222222</v>
+        <v>45158.2777777778</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -487,13 +487,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.5</v>
+        <v>-8.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45151.1319444444</v>
+        <v>45157.1736111111</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -507,13 +507,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>21.5</v>
+        <v>-18.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-21.5</v>
+        <v>18.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.2743055556</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -527,13 +527,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.5</v>
+        <v>-24.75</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5</v>
+        <v>24.75</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45151.2777777778</v>
+        <v>45158.2222222222</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -547,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.25</v>
+        <v>-24.25</v>
       </c>
       <c r="C8" t="n">
-        <v>2.25</v>
+        <v>24.25</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45151.2222222222</v>
+        <v>45157.15625</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -567,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>-23.25</v>
+        <v>7.83333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>23.25</v>
+        <v>-7.83333333333333</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45150.15625</v>
+        <v>45157.3923611111</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -587,13 +587,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>30.75</v>
+        <v>-62.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-30.75</v>
+        <v>62.5</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45150.4236111111</v>
+        <v>45158.1319444444</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>

--- a/Apps/lines.xlsx
+++ b/Apps/lines.xlsx
@@ -32,37 +32,37 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
-    <t xml:space="preserve">Adelaide v Sydney</t>
+    <t xml:space="preserve">Brisbane Lions v St Kilda</t>
   </si>
   <si>
     <t xml:space="preserve">2023 Toyota AFL Premiership</t>
   </si>
   <si>
-    <t xml:space="preserve">Round 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collingwood v Brisbane Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremantle v Port Adelaide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Coast v Carlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Western Sydney v Essendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne v Hawthorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond v North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Kilda v Geelong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Bulldogs v West Coast</t>
+    <t xml:space="preserve">Round 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlton v Greater Western Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essendon v Collingwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geelong v Western Bulldogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorn v Fremantle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Melbourne v Gold Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Adelaide v Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney v Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast v Adelaide</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.5</v>
+        <v>-28</v>
       </c>
       <c r="C2" t="n">
-        <v>9.5</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45157.4027777778</v>
+        <v>45164.2743055556</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -447,13 +447,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.5</v>
+        <v>-14</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45156.4097222222</v>
+        <v>45165.3402777778</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -467,13 +467,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>9.5</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.5</v>
+        <v>-31</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45158.2777777778</v>
+        <v>45163.4097222222</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -487,13 +487,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>8.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.5</v>
+        <v>2.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45157.1736111111</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -507,13 +507,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-18.5</v>
+        <v>-10.75</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5</v>
+        <v>10.75</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45157.2743055556</v>
+        <v>45164.15625</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -527,13 +527,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>-24.75</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>24.75</v>
+        <v>-19</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45158.2222222222</v>
+        <v>45164.15625</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -547,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-24.25</v>
+        <v>-37.75</v>
       </c>
       <c r="C8" t="n">
-        <v>24.25</v>
+        <v>37.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45157.15625</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -567,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>7.83333333333333</v>
+        <v>-2.5</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.83333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45157.3923611111</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -587,13 +587,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>-62.5</v>
+        <v>31.5</v>
       </c>
       <c r="C10" t="n">
-        <v>62.5</v>
+        <v>-31.5</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>45158.1319444444</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>

--- a/Apps/lines.xlsx
+++ b/Apps/lines.xlsx
@@ -427,10 +427,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-28</v>
+        <v>-26.75</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>26.75</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>45164.2743055556</v>
@@ -447,10 +447,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>45165.3402777778</v>
@@ -467,10 +467,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-31</v>
+        <v>-30.5</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>45163.4097222222</v>
@@ -487,10 +487,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.5</v>
+        <v>3.75</v>
       </c>
       <c r="C5" t="n">
-        <v>2.5</v>
+        <v>-3.75</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>45164.3923611111</v>
@@ -507,10 +507,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.75</v>
+        <v>-10</v>
       </c>
       <c r="C6" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>45164.15625</v>
@@ -527,10 +527,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20.25</v>
       </c>
       <c r="C7" t="n">
-        <v>-19</v>
+        <v>-20.25</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>45164.15625</v>
@@ -547,10 +547,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-37.75</v>
+        <v>-37.5</v>
       </c>
       <c r="C8" t="n">
-        <v>37.75</v>
+        <v>37.5</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>45165.1041666667</v>
@@ -567,10 +567,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>45165.2222222222</v>
@@ -587,10 +587,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-31.5</v>
+        <v>-32</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>45164.4236111111</v>

--- a/Apps/lines.xlsx
+++ b/Apps/lines.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">match</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Carlton v Greater Western Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essendon v Collingwood</t>
   </si>
   <si>
     <t xml:space="preserve">Geelong v Western Bulldogs</t>
@@ -427,10 +424,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-26.75</v>
+        <v>-29.25</v>
       </c>
       <c r="C2" t="n">
-        <v>26.75</v>
+        <v>29.25</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>45164.2743055556</v>
@@ -447,10 +444,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-13</v>
+        <v>-3.5</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>45165.3402777778</v>
@@ -467,13 +464,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>30.5</v>
+        <v>8.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-30.5</v>
+        <v>-8.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>45163.4097222222</v>
+        <v>45164.3923611111</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -487,13 +484,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>3.75</v>
+        <v>-7.75</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.75</v>
+        <v>7.75</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45164.3923611111</v>
+        <v>45164.15625</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -507,10 +504,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-10</v>
+        <v>24.5</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>-24.5</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>45164.15625</v>
@@ -527,13 +524,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>20.25</v>
+        <v>-40</v>
       </c>
       <c r="C7" t="n">
-        <v>-20.25</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45164.15625</v>
+        <v>45165.1041666667</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -547,13 +544,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>-37.5</v>
+        <v>-2.75</v>
       </c>
       <c r="C8" t="n">
-        <v>37.5</v>
+        <v>2.75</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45165.1041666667</v>
+        <v>45165.2222222222</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -567,38 +564,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.25</v>
+        <v>31.25</v>
       </c>
       <c r="C9" t="n">
-        <v>2.25</v>
+        <v>-31.25</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45165.2222222222</v>
+        <v>45164.4236111111</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="n">
-        <v>32</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-32</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>45164.4236111111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
         <v>8</v>
       </c>
     </row>
